--- a/hw1_Simulated Annealing/simulResults.xlsx
+++ b/hw1_Simulated Annealing/simulResults.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C81924E-8972-4889-BC24-D2DB77C12DC7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEC1C18E-7BDE-402E-A6AA-8859D879007B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3552" yWindow="1800" windowWidth="14436" windowHeight="10260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -841,9 +841,6 @@
     <t>2.6070</t>
   </si>
   <si>
-    <t>MAX</t>
-  </si>
-  <si>
     <t>AVG</t>
   </si>
   <si>
@@ -947,6 +944,9 @@
   </si>
   <si>
     <t>3681.5</t>
+  </si>
+  <si>
+    <t>worst</t>
   </si>
 </sst>
 </file>
@@ -1332,7 +1332,7 @@
   <dimension ref="A1:K63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1352,13 +1352,13 @@
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>271</v>
+        <v>306</v>
       </c>
       <c r="G1" s="10" t="s">
         <v>68</v>
@@ -1370,7 +1370,7 @@
         <v>70</v>
       </c>
       <c r="K1" s="9" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -1594,19 +1594,19 @@
         <v>46934</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F9" s="3">
         <v>49917</v>
       </c>
       <c r="G9" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="H9" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="I9" s="3" t="s">
         <v>280</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>281</v>
       </c>
       <c r="K9" s="3">
         <f t="shared" si="0"/>
@@ -1624,19 +1624,19 @@
         <v>59438</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F10" s="3">
         <v>66501</v>
       </c>
       <c r="G10" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="H10" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="I10" s="3" t="s">
         <v>276</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>277</v>
       </c>
       <c r="K10" s="3">
         <f t="shared" si="0"/>
@@ -3004,19 +3004,19 @@
         <v>3532</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F58" s="3">
         <v>3926</v>
       </c>
       <c r="G58" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="I58" s="3" t="s">
         <v>283</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>284</v>
       </c>
       <c r="K58" s="3">
         <f t="shared" si="0"/>
@@ -3034,19 +3034,19 @@
         <v>24300</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F59" s="3">
         <v>24711</v>
       </c>
       <c r="G59" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="H59" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="H59" s="3" t="s">
+      <c r="I59" s="3" t="s">
         <v>288</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>289</v>
       </c>
       <c r="K59" s="3">
         <f t="shared" si="0"/>
@@ -3064,19 +3064,19 @@
         <v>3676</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F60" s="3">
         <v>3687</v>
       </c>
       <c r="G60" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="H60" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="H60" s="3" t="s">
-        <v>305</v>
-      </c>
       <c r="I60" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="K60" s="3">
         <f t="shared" si="0"/>
@@ -3094,19 +3094,19 @@
         <v>224197</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F61" s="3">
         <v>228394</v>
       </c>
       <c r="G61" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="H61" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="H61" s="3" t="s">
+      <c r="I61" s="3" t="s">
         <v>301</v>
-      </c>
-      <c r="I61" s="3" t="s">
-        <v>302</v>
       </c>
       <c r="K61" s="3">
         <f t="shared" si="0"/>
@@ -3124,19 +3124,19 @@
         <v>121526</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F62" s="3">
         <v>126399</v>
       </c>
       <c r="G62" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="H62" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="H62" s="3" t="s">
+      <c r="I62" s="3" t="s">
         <v>297</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>298</v>
       </c>
       <c r="K62" s="3">
         <f t="shared" si="0"/>
@@ -3154,19 +3154,19 @@
         <v>257974</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F63" s="3">
         <v>261393</v>
       </c>
       <c r="G63" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="H63" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="H63" s="3" t="s">
-        <v>293</v>
-      </c>
       <c r="I63" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="K63" s="3">
         <f t="shared" si="0"/>
